--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>396.995296030644</v>
+        <v>404.808258</v>
       </c>
       <c r="N2">
-        <v>396.995296030644</v>
+        <v>809.616516</v>
       </c>
       <c r="O2">
-        <v>0.4033065793617904</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P2">
-        <v>0.4033065793617904</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q2">
-        <v>12228.84891401504</v>
+        <v>12810.35244199036</v>
       </c>
       <c r="R2">
-        <v>12228.84891401504</v>
+        <v>51241.40976796143</v>
       </c>
       <c r="S2">
-        <v>0.01663066826842894</v>
+        <v>0.01347875490560709</v>
       </c>
       <c r="T2">
-        <v>0.01663066826842894</v>
+        <v>0.007163472197515093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>157.048618524835</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N3">
-        <v>157.048618524835</v>
+        <v>0.236996</v>
       </c>
       <c r="O3">
-        <v>0.1595453189597914</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P3">
-        <v>0.1595453189597914</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q3">
-        <v>4837.648826818204</v>
+        <v>2.499950884024</v>
       </c>
       <c r="R3">
-        <v>4837.648826818204</v>
+        <v>14.999705304144</v>
       </c>
       <c r="S3">
-        <v>0.006578978398021042</v>
+        <v>2.630390178131576E-06</v>
       </c>
       <c r="T3">
-        <v>0.006578978398021042</v>
+        <v>2.096936294370614E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.88905713852451</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N4">
-        <v>72.88905713852451</v>
+        <v>609.625816</v>
       </c>
       <c r="O4">
-        <v>0.07404782021693096</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P4">
-        <v>0.07404782021693096</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q4">
-        <v>2245.238863392533</v>
+        <v>6430.634262321104</v>
       </c>
       <c r="R4">
-        <v>2245.238863392533</v>
+        <v>38583.80557392663</v>
       </c>
       <c r="S4">
-        <v>0.003053420888835405</v>
+        <v>0.006766163811802087</v>
       </c>
       <c r="T4">
-        <v>0.003053420888835405</v>
+        <v>0.005393958124000834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>327.200973561916</v>
+        <v>88.434049</v>
       </c>
       <c r="N5">
-        <v>327.200973561916</v>
+        <v>265.302147</v>
       </c>
       <c r="O5">
-        <v>0.3324026927536134</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P5">
-        <v>0.3324026927536134</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q5">
-        <v>10078.93874364305</v>
+        <v>2798.538105816618</v>
       </c>
       <c r="R5">
-        <v>10078.93874364305</v>
+        <v>16791.22863489971</v>
       </c>
       <c r="S5">
-        <v>0.01370688998792364</v>
+        <v>0.002944556708577442</v>
       </c>
       <c r="T5">
-        <v>0.01370688998792364</v>
+        <v>0.002347388567818646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.2172068102489</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N6">
-        <v>30.2172068102489</v>
+        <v>1018.778411</v>
       </c>
       <c r="O6">
-        <v>0.03069758870787372</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P6">
-        <v>0.03069758870787372</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q6">
-        <v>930.7960582423544</v>
+        <v>10746.57795576303</v>
       </c>
       <c r="R6">
-        <v>930.7960582423544</v>
+        <v>64479.4677345782</v>
       </c>
       <c r="S6">
-        <v>0.001265839538866906</v>
+        <v>0.01130729938896392</v>
       </c>
       <c r="T6">
-        <v>0.001265839538866906</v>
+        <v>0.009014132837461906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.72907579575249</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>75.72907579575249</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.101376392339517</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.101376392339517</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>396.995296030644</v>
+        <v>31.847119</v>
       </c>
       <c r="N7">
-        <v>396.995296030644</v>
+        <v>63.694238</v>
       </c>
       <c r="O7">
-        <v>0.4033065793617904</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P7">
-        <v>0.4033065793617904</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q7">
-        <v>30064.08686366184</v>
+        <v>1007.817431066358</v>
       </c>
       <c r="R7">
-        <v>30064.08686366184</v>
+        <v>4031.269724265432</v>
       </c>
       <c r="S7">
-        <v>0.0408857660224894</v>
+        <v>0.001060402061883587</v>
       </c>
       <c r="T7">
-        <v>0.0408857660224894</v>
+        <v>0.0005635654585076539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>157.048618524835</v>
+        <v>404.808258</v>
       </c>
       <c r="N8">
-        <v>157.048618524835</v>
+        <v>809.616516</v>
       </c>
       <c r="O8">
-        <v>0.1595453189597914</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P8">
-        <v>0.1595453189597914</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q8">
-        <v>11893.14673588545</v>
+        <v>33691.15648849647</v>
       </c>
       <c r="R8">
-        <v>11893.14673588545</v>
+        <v>202146.9389309788</v>
       </c>
       <c r="S8">
-        <v>0.01617412885080119</v>
+        <v>0.03544905129279501</v>
       </c>
       <c r="T8">
-        <v>0.01617412885080119</v>
+        <v>0.02825983873984382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>72.88905713852451</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N9">
-        <v>72.88905713852451</v>
+        <v>0.236996</v>
       </c>
       <c r="O9">
-        <v>0.07404782021693096</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P9">
-        <v>0.07404782021693096</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q9">
-        <v>5519.820932724257</v>
+        <v>6.574857079741779</v>
       </c>
       <c r="R9">
-        <v>5519.820932724257</v>
+        <v>59.173713717676</v>
       </c>
       <c r="S9">
-        <v>0.007506700874197608</v>
+        <v>6.917911706062782E-06</v>
       </c>
       <c r="T9">
-        <v>0.007506700874197608</v>
+        <v>8.272396387215038E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>327.200973561916</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N10">
-        <v>327.200973561916</v>
+        <v>609.625816</v>
       </c>
       <c r="O10">
-        <v>0.3324026927536134</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P10">
-        <v>0.3324026927536134</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q10">
-        <v>24778.62732731435</v>
+        <v>16912.5327529619</v>
       </c>
       <c r="R10">
-        <v>24778.62732731435</v>
+        <v>152212.7947766571</v>
       </c>
       <c r="S10">
-        <v>0.03369778579530223</v>
+        <v>0.01779497362328679</v>
       </c>
       <c r="T10">
-        <v>0.03369778579530223</v>
+        <v>0.02127912031355559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.2172068102489</v>
+        <v>88.434049</v>
       </c>
       <c r="N11">
-        <v>30.2172068102489</v>
+        <v>265.302147</v>
       </c>
       <c r="O11">
-        <v>0.03069758870787372</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P11">
-        <v>0.03069758870787372</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q11">
-        <v>2288.321144869267</v>
+        <v>7360.139831362741</v>
       </c>
       <c r="R11">
-        <v>2288.321144869267</v>
+        <v>66241.25848226466</v>
       </c>
       <c r="S11">
-        <v>0.003112010796726532</v>
+        <v>0.00774416795378356</v>
       </c>
       <c r="T11">
-        <v>0.003112010796726532</v>
+        <v>0.009260428540410778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>396.995296030644</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N12">
-        <v>396.995296030644</v>
+        <v>1018.778411</v>
       </c>
       <c r="O12">
-        <v>0.4033065793617904</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P12">
-        <v>0.4033065793617904</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q12">
-        <v>157120.5306940633</v>
+        <v>28263.44093677289</v>
       </c>
       <c r="R12">
-        <v>157120.5306940633</v>
+        <v>254370.968430956</v>
       </c>
       <c r="S12">
-        <v>0.2136766463062429</v>
+        <v>0.02973813522313009</v>
       </c>
       <c r="T12">
-        <v>0.2136766463062429</v>
+        <v>0.03556067970146786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>157.048618524835</v>
+        <v>31.847119</v>
       </c>
       <c r="N13">
-        <v>157.048618524835</v>
+        <v>63.694238</v>
       </c>
       <c r="O13">
-        <v>0.1595453189597914</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P13">
-        <v>0.1595453189597914</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q13">
-        <v>62155.80520502407</v>
+        <v>2650.55430251813</v>
       </c>
       <c r="R13">
-        <v>62155.80520502407</v>
+        <v>15903.32581510878</v>
       </c>
       <c r="S13">
-        <v>0.08452901696554342</v>
+        <v>0.002788851592446384</v>
       </c>
       <c r="T13">
-        <v>0.08452901696554342</v>
+        <v>0.002223261085915436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>72.88905713852451</v>
+        <v>404.808258</v>
       </c>
       <c r="N14">
-        <v>72.88905713852451</v>
+        <v>809.616516</v>
       </c>
       <c r="O14">
-        <v>0.07404782021693096</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P14">
-        <v>0.07404782021693096</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q14">
-        <v>28847.61470450992</v>
+        <v>212353.0566231493</v>
       </c>
       <c r="R14">
-        <v>28847.61470450992</v>
+        <v>1274118.339738896</v>
       </c>
       <c r="S14">
-        <v>0.03923142021456553</v>
+        <v>0.2234329474260135</v>
       </c>
       <c r="T14">
-        <v>0.03923142021456553</v>
+        <v>0.1781198320732068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>327.200973561916</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N15">
-        <v>327.200973561916</v>
+        <v>0.236996</v>
       </c>
       <c r="O15">
-        <v>0.3324026927536134</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P15">
-        <v>0.3324026927536134</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q15">
-        <v>129497.7324005725</v>
+        <v>41.440874795148</v>
       </c>
       <c r="R15">
-        <v>129497.7324005725</v>
+        <v>372.967873156332</v>
       </c>
       <c r="S15">
-        <v>0.1761109196957616</v>
+        <v>4.360312465774476E-05</v>
       </c>
       <c r="T15">
-        <v>0.1761109196957616</v>
+        <v>5.214034902670109E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.2172068102489</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N16">
-        <v>30.2172068102489</v>
+        <v>609.625816</v>
       </c>
       <c r="O16">
-        <v>0.03069758870787372</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P16">
-        <v>0.03069758870787372</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q16">
-        <v>11959.19351586497</v>
+        <v>106598.5380037888</v>
       </c>
       <c r="R16">
-        <v>11959.19351586497</v>
+        <v>959386.8420340992</v>
       </c>
       <c r="S16">
-        <v>0.01626394941328916</v>
+        <v>0.1121605024963601</v>
       </c>
       <c r="T16">
-        <v>0.01626394941328916</v>
+        <v>0.134120840950596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>396.995296030644</v>
+        <v>88.434049</v>
       </c>
       <c r="N17">
-        <v>396.995296030644</v>
+        <v>265.302147</v>
       </c>
       <c r="O17">
-        <v>0.4033065793617904</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P17">
-        <v>0.4033065793617904</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q17">
-        <v>70478.23642058323</v>
+        <v>46390.45830609355</v>
       </c>
       <c r="R17">
-        <v>70478.23642058323</v>
+        <v>417514.124754842</v>
       </c>
       <c r="S17">
-        <v>0.09584713805003554</v>
+        <v>0.04881096131415012</v>
       </c>
       <c r="T17">
-        <v>0.09584713805003554</v>
+        <v>0.05836784815825229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>157.048618524835</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N18">
-        <v>157.048618524835</v>
+        <v>1018.778411</v>
       </c>
       <c r="O18">
-        <v>0.1595453189597914</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P18">
-        <v>0.1595453189597914</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q18">
-        <v>27880.70734486721</v>
+        <v>178142.5364742478</v>
       </c>
       <c r="R18">
-        <v>27880.70734486721</v>
+        <v>1603282.82826823</v>
       </c>
       <c r="S18">
-        <v>0.0379164709779214</v>
+        <v>0.1874374337687223</v>
       </c>
       <c r="T18">
-        <v>0.0379164709779214</v>
+        <v>0.2241365336562977</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>72.88905713852451</v>
+        <v>31.847119</v>
       </c>
       <c r="N19">
-        <v>72.88905713852451</v>
+        <v>63.694238</v>
       </c>
       <c r="O19">
-        <v>0.07404782021693096</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P19">
-        <v>0.07404782021693096</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q19">
-        <v>12939.93216757359</v>
+        <v>16706.26260863279</v>
       </c>
       <c r="R19">
-        <v>12939.93216757359</v>
+        <v>100237.5756517967</v>
       </c>
       <c r="S19">
-        <v>0.01759770856668746</v>
+        <v>0.01757794097470461</v>
       </c>
       <c r="T19">
-        <v>0.01759770856668746</v>
+        <v>0.01401306266903141</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>327.200973561916</v>
+        <v>404.808258</v>
       </c>
       <c r="N20">
-        <v>327.200973561916</v>
+        <v>809.616516</v>
       </c>
       <c r="O20">
-        <v>0.3324026927536134</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P20">
-        <v>0.3324026927536134</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q20">
-        <v>58087.70986032458</v>
+        <v>73465.14443022528</v>
       </c>
       <c r="R20">
-        <v>58087.70986032458</v>
+        <v>440790.8665813517</v>
       </c>
       <c r="S20">
-        <v>0.0789965956691694</v>
+        <v>0.07729831637061356</v>
       </c>
       <c r="T20">
-        <v>0.0789965956691694</v>
+        <v>0.06162190173870616</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>30.2172068102489</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N21">
-        <v>30.2172068102489</v>
+        <v>0.236996</v>
       </c>
       <c r="O21">
-        <v>0.03069758870787372</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P21">
-        <v>0.03069758870787372</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q21">
-        <v>5364.434961410706</v>
+        <v>14.33678375321555</v>
       </c>
       <c r="R21">
-        <v>5364.434961410706</v>
+        <v>129.03105377894</v>
       </c>
       <c r="S21">
-        <v>0.007295383148330405</v>
+        <v>1.508483043064958E-05</v>
       </c>
       <c r="T21">
-        <v>0.007295383148330405</v>
+        <v>1.80383477064176E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>396.995296030644</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N22">
-        <v>396.995296030644</v>
+        <v>609.625816</v>
       </c>
       <c r="O22">
-        <v>0.4033065793617904</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P22">
-        <v>0.4033065793617904</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q22">
-        <v>6082.116371211144</v>
+        <v>36878.56965674346</v>
       </c>
       <c r="R22">
-        <v>6082.116371211144</v>
+        <v>331907.1269106912</v>
       </c>
       <c r="S22">
-        <v>0.008271396633551456</v>
+        <v>0.03880277329788848</v>
       </c>
       <c r="T22">
-        <v>0.008271396633551456</v>
+        <v>0.04640011831345911</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>157.048618524835</v>
+        <v>88.434049</v>
       </c>
       <c r="N23">
-        <v>157.048618524835</v>
+        <v>265.302147</v>
       </c>
       <c r="O23">
-        <v>0.1595453189597914</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P23">
-        <v>0.1595453189597914</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q23">
-        <v>2406.043556073425</v>
+        <v>16049.12956675558</v>
       </c>
       <c r="R23">
-        <v>2406.043556073425</v>
+        <v>144442.1661008002</v>
       </c>
       <c r="S23">
-        <v>0.003272107824849282</v>
+        <v>0.0168865208711635</v>
       </c>
       <c r="T23">
-        <v>0.003272107824849282</v>
+        <v>0.02019279808454621</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>72.88905713852451</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N24">
-        <v>72.88905713852451</v>
+        <v>1018.778411</v>
       </c>
       <c r="O24">
-        <v>0.07404782021693096</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P24">
-        <v>0.07404782021693096</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q24">
-        <v>1116.687608485277</v>
+        <v>61629.75649779556</v>
       </c>
       <c r="R24">
-        <v>1116.687608485277</v>
+        <v>554667.8084801601</v>
       </c>
       <c r="S24">
-        <v>0.001518643439522755</v>
+        <v>0.06484539644695107</v>
       </c>
       <c r="T24">
-        <v>0.001518643439522755</v>
+        <v>0.07754172734311808</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>327.200973561916</v>
+        <v>31.847119</v>
       </c>
       <c r="N25">
-        <v>327.200973561916</v>
+        <v>63.694238</v>
       </c>
       <c r="O25">
-        <v>0.3324026927536134</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P25">
-        <v>0.3324026927536134</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q25">
-        <v>5012.841254984392</v>
+        <v>5779.657778180927</v>
       </c>
       <c r="R25">
-        <v>5012.841254984392</v>
+        <v>34677.94666908556</v>
       </c>
       <c r="S25">
-        <v>0.006817231988073441</v>
+        <v>0.006081221495127152</v>
       </c>
       <c r="T25">
-        <v>0.006817231988073441</v>
+        <v>0.004847924909869013</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.2172068102489</v>
+        <v>404.808258</v>
       </c>
       <c r="N26">
-        <v>30.2172068102489</v>
+        <v>809.616516</v>
       </c>
       <c r="O26">
-        <v>0.03069758870787372</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P26">
-        <v>0.03069758870787372</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q26">
-        <v>462.9389065070973</v>
+        <v>6394.664699895779</v>
       </c>
       <c r="R26">
-        <v>462.9389065070973</v>
+        <v>38367.98819937467</v>
       </c>
       <c r="S26">
-        <v>0.0006295754765475312</v>
+        <v>0.006728317474772066</v>
       </c>
       <c r="T26">
-        <v>0.0006295754765475312</v>
+        <v>0.005363787178873748</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>396.995296030644</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N27">
-        <v>396.995296030644</v>
+        <v>0.236996</v>
       </c>
       <c r="O27">
-        <v>0.4033065793617904</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P27">
-        <v>0.4033065793617904</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q27">
-        <v>20585.23329157133</v>
+        <v>1.247924109967556</v>
       </c>
       <c r="R27">
-        <v>20585.23329157133</v>
+        <v>11.231316989708</v>
       </c>
       <c r="S27">
-        <v>0.02799496408104216</v>
+        <v>1.313036725197011E-06</v>
       </c>
       <c r="T27">
-        <v>0.02799496408104216</v>
+        <v>1.570121262501966E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>157.048618524835</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N28">
-        <v>157.048618524835</v>
+        <v>609.625816</v>
       </c>
       <c r="O28">
-        <v>0.1595453189597914</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P28">
-        <v>0.1595453189597914</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q28">
-        <v>8143.377220779898</v>
+        <v>3210.040481042063</v>
       </c>
       <c r="R28">
-        <v>8143.377220779898</v>
+        <v>28890.36432937857</v>
       </c>
       <c r="S28">
-        <v>0.01107461594265509</v>
+        <v>0.003377529937366858</v>
       </c>
       <c r="T28">
-        <v>0.01107461594265509</v>
+        <v>0.004038829583080352</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>72.88905713852451</v>
+        <v>88.434049</v>
       </c>
       <c r="N29">
-        <v>72.88905713852451</v>
+        <v>265.302147</v>
       </c>
       <c r="O29">
-        <v>0.07404782021693096</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P29">
-        <v>0.07404782021693096</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q29">
-        <v>3779.486207018888</v>
+        <v>1396.972715435942</v>
       </c>
       <c r="R29">
-        <v>3779.486207018888</v>
+        <v>12572.75443892348</v>
       </c>
       <c r="S29">
-        <v>0.005139926233122206</v>
+        <v>0.001469862201406843</v>
       </c>
       <c r="T29">
-        <v>0.005139926233122206</v>
+        <v>0.001757652205067267</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>327.200973561916</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N30">
-        <v>327.200973561916</v>
+        <v>1018.778411</v>
       </c>
       <c r="O30">
-        <v>0.3324026927536134</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P30">
-        <v>0.3324026927536134</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q30">
-        <v>16966.21708455052</v>
+        <v>5364.470884746305</v>
       </c>
       <c r="R30">
-        <v>16966.21708455052</v>
+        <v>48280.23796271675</v>
       </c>
       <c r="S30">
-        <v>0.02307326961738309</v>
+        <v>0.005644371501969885</v>
       </c>
       <c r="T30">
-        <v>0.02307326961738309</v>
+        <v>0.006749504822398127</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>30.2172068102489</v>
+        <v>31.847119</v>
       </c>
       <c r="N31">
-        <v>30.2172068102489</v>
+        <v>63.694238</v>
       </c>
       <c r="O31">
-        <v>0.03069758870787372</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P31">
-        <v>0.03069758870787372</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q31">
-        <v>1566.840357626346</v>
+        <v>503.0817520098123</v>
       </c>
       <c r="R31">
-        <v>1566.840357626346</v>
+        <v>3018.490512058874</v>
       </c>
       <c r="S31">
-        <v>0.002130830334113186</v>
+        <v>0.0005293309191554227</v>
       </c>
       <c r="T31">
-        <v>0.002130830334113186</v>
+        <v>0.0004219804443225231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.1948375</v>
+      </c>
+      <c r="H32">
+        <v>106.389675</v>
+      </c>
+      <c r="I32">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J32">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>404.808258</v>
+      </c>
+      <c r="N32">
+        <v>809.616516</v>
+      </c>
+      <c r="O32">
+        <v>0.3790446557934784</v>
+      </c>
+      <c r="P32">
+        <v>0.2925703530363589</v>
+      </c>
+      <c r="Q32">
+        <v>21533.70950296807</v>
+      </c>
+      <c r="R32">
+        <v>86134.8380118723</v>
+      </c>
+      <c r="S32">
+        <v>0.0226572683236772</v>
+      </c>
+      <c r="T32">
+        <v>0.01204152110821327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.1948375</v>
+      </c>
+      <c r="H33">
+        <v>106.389675</v>
+      </c>
+      <c r="I33">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J33">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.07899866666666668</v>
+      </c>
+      <c r="N33">
+        <v>0.236996</v>
+      </c>
+      <c r="O33">
+        <v>7.397087836782818E-05</v>
+      </c>
+      <c r="P33">
+        <v>8.564301989635414E-05</v>
+      </c>
+      <c r="Q33">
+        <v>4.20232123605</v>
+      </c>
+      <c r="R33">
+        <v>25.2139274163</v>
+      </c>
+      <c r="S33">
+        <v>4.42158467004248E-06</v>
+      </c>
+      <c r="T33">
+        <v>3.524869219147838E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.1948375</v>
+      </c>
+      <c r="H34">
+        <v>106.389675</v>
+      </c>
+      <c r="I34">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J34">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>203.2086053333333</v>
+      </c>
+      <c r="N34">
+        <v>609.625816</v>
+      </c>
+      <c r="O34">
+        <v>0.1902756041672602</v>
+      </c>
+      <c r="P34">
+        <v>0.220299903327563</v>
+      </c>
+      <c r="Q34">
+        <v>10809.6487393083</v>
+      </c>
+      <c r="R34">
+        <v>64857.8924358498</v>
+      </c>
+      <c r="S34">
+        <v>0.01137366100055586</v>
+      </c>
+      <c r="T34">
+        <v>0.009067036042871117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.1948375</v>
+      </c>
+      <c r="H35">
+        <v>106.389675</v>
+      </c>
+      <c r="I35">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J35">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>88.434049</v>
+      </c>
+      <c r="N35">
+        <v>265.302147</v>
+      </c>
+      <c r="O35">
+        <v>0.08280575556743855</v>
+      </c>
+      <c r="P35">
+        <v>0.09587198540931691</v>
+      </c>
+      <c r="Q35">
+        <v>4704.234866022038</v>
+      </c>
+      <c r="R35">
+        <v>28225.40919613222</v>
+      </c>
+      <c r="S35">
+        <v>0.004949686518357087</v>
+      </c>
+      <c r="T35">
+        <v>0.00394586985322172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.1948375</v>
+      </c>
+      <c r="H36">
+        <v>106.389675</v>
+      </c>
+      <c r="I36">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J36">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>339.5928036666666</v>
+      </c>
+      <c r="N36">
+        <v>1018.778411</v>
+      </c>
+      <c r="O36">
+        <v>0.3179797714891823</v>
+      </c>
+      <c r="P36">
+        <v>0.3681549887898912</v>
+      </c>
+      <c r="Q36">
+        <v>18064.58400721773</v>
+      </c>
+      <c r="R36">
+        <v>108387.5040433064</v>
+      </c>
+      <c r="S36">
+        <v>0.01900713515944503</v>
+      </c>
+      <c r="T36">
+        <v>0.01515241042914751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.1948375</v>
+      </c>
+      <c r="H37">
+        <v>106.389675</v>
+      </c>
+      <c r="I37">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J37">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>31.847119</v>
+      </c>
+      <c r="N37">
+        <v>63.694238</v>
+      </c>
+      <c r="O37">
+        <v>0.02982024210427285</v>
+      </c>
+      <c r="P37">
+        <v>0.02301712641697377</v>
+      </c>
+      <c r="Q37">
+        <v>1694.102320048162</v>
+      </c>
+      <c r="R37">
+        <v>6776.40928019265</v>
+      </c>
+      <c r="S37">
+        <v>0.001782495060955694</v>
+      </c>
+      <c r="T37">
+        <v>0.0009473318493277376</v>
       </c>
     </row>
   </sheetData>
